--- a/Excel/inventory.xlsx
+++ b/Excel/inventory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Fahad\Website2\Website new\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fahad\Desktop\Website_NEW\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CD9A51-C501-43BE-B290-15F7330E8B79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B232B08C-C7C5-4A02-9AEA-B92DBF4F7394}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="41">
   <si>
     <t>Serial No</t>
   </si>
@@ -140,6 +140,9 @@
   </si>
   <si>
     <t>CurrentOwner</t>
+  </si>
+  <si>
+    <t>SOI Tripura</t>
   </si>
 </sst>
 </file>
@@ -619,27 +622,27 @@
   <dimension ref="A1:Z11"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="29.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="22.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="29.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.109375" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="X1" s="2"/>
       <c r="Z1" s="2"/>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -714,7 +717,7 @@
       <c r="X2" s="10"/>
       <c r="Z2" s="11"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -737,7 +740,7 @@
         <v>27</v>
       </c>
       <c r="H3" s="12" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="I3" s="12" t="s">
         <v>33</v>
@@ -745,7 +748,7 @@
       <c r="X3" s="10"/>
       <c r="Z3" s="11"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -776,7 +779,7 @@
       <c r="X4" s="10"/>
       <c r="Z4" s="11"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -807,7 +810,7 @@
       <c r="X5" s="10"/>
       <c r="Z5" s="11"/>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -838,7 +841,7 @@
       <c r="X6" s="10"/>
       <c r="Z6" s="11"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -869,7 +872,7 @@
       <c r="X7" s="10"/>
       <c r="Z7" s="11"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -900,7 +903,7 @@
       <c r="X8" s="10"/>
       <c r="Z8" s="11"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -931,7 +934,7 @@
       <c r="X9" s="10"/>
       <c r="Z9" s="11"/>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -962,7 +965,7 @@
       <c r="X10" s="10"/>
       <c r="Z10" s="11"/>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
